--- a/data/trans_orig/P14A35-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A35-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{408EF2A5-7E96-4019-B862-34FCA2E33368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBD2EDD5-EE27-4385-9BD5-E9C86554FC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2144551E-BD7E-4DEE-B1F1-8934DC7F091E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4DAF4B68-238D-47B7-B677-CF3374F3C14D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="108">
   <si>
     <t>Población que recibe medicación o terapia por dolor menstrual en 2012 (Tasa respuesta: 2,04%)</t>
   </si>
@@ -84,19 +84,19 @@
     <t>74,97%</t>
   </si>
   <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
   </si>
   <si>
     <t>25,03%</t>
   </si>
   <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
   </si>
   <si>
     <t>100%</t>
@@ -108,19 +108,19 @@
     <t>48,8%</t>
   </si>
   <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
   </si>
   <si>
     <t>51,2%</t>
   </si>
   <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -129,19 +129,13 @@
     <t>73,9%</t>
   </si>
   <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
+    <t>90,3%</t>
   </si>
   <si>
     <t>26,1%</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
+    <t>9,7%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -150,19 +144,19 @@
     <t>77,69%</t>
   </si>
   <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
   </si>
   <si>
     <t>22,31%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -171,19 +165,19 @@
     <t>66,09%</t>
   </si>
   <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
   </si>
   <si>
     <t>33,91%</t>
   </si>
   <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -192,19 +186,19 @@
     <t>52,79%</t>
   </si>
   <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
   </si>
   <si>
     <t>47,21%</t>
   </si>
   <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -213,7 +207,7 @@
     <t>85,76%</t>
   </si>
   <si>
-    <t>54,94%</t>
+    <t>56,1%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -225,25 +219,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>45,06%</t>
+    <t>43,9%</t>
   </si>
   <si>
     <t>68,91%</t>
   </si>
   <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
   </si>
   <si>
     <t>31,09%</t>
   </si>
   <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -255,31 +249,25 @@
     <t>68,89%</t>
   </si>
   <si>
-    <t>16,31%</t>
+    <t>17,27%</t>
   </si>
   <si>
     <t>31,11%</t>
   </si>
   <si>
-    <t>83,69%</t>
+    <t>82,73%</t>
   </si>
   <si>
     <t>75,73%</t>
   </si>
   <si>
-    <t>25,62%</t>
-  </si>
-  <si>
     <t>24,27%</t>
   </si>
   <si>
-    <t>74,38%</t>
-  </si>
-  <si>
     <t>37,08%</t>
   </si>
   <si>
-    <t>12,09%</t>
+    <t>12,18%</t>
   </si>
   <si>
     <t>75,0%</t>
@@ -291,7 +279,7 @@
     <t>25,0%</t>
   </si>
   <si>
-    <t>87,91%</t>
+    <t>87,82%</t>
   </si>
   <si>
     <t>40,01%</t>
@@ -324,19 +312,19 @@
     <t>63,93%</t>
   </si>
   <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
   </si>
   <si>
     <t>36,07%</t>
   </si>
   <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
   </si>
   <si>
     <t>62,34%</t>
@@ -360,19 +348,19 @@
     <t>62,85%</t>
   </si>
   <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
   </si>
   <si>
     <t>37,15%</t>
   </si>
   <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
   </si>
 </sst>
 </file>
@@ -784,7 +772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3091614F-E8FE-40E5-869C-D9634BF442FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FE5857-898E-4152-B5BA-F115284DB3DE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1359,10 +1347,10 @@
         <v>29</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -1374,10 +1362,10 @@
         <v>29</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1405,13 +1393,13 @@
         <v>5075</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -1420,13 +1408,13 @@
         <v>5075</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1480,7 +1468,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1505,13 +1493,13 @@
         <v>13509</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -1520,13 +1508,13 @@
         <v>13509</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1554,13 +1542,13 @@
         <v>3879</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -1569,13 +1557,13 @@
         <v>3879</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1629,7 +1617,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1654,13 +1642,13 @@
         <v>12702</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -1669,13 +1657,13 @@
         <v>12702</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1703,13 +1691,13 @@
         <v>6517</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -1718,13 +1706,13 @@
         <v>6517</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1778,7 +1766,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1803,13 +1791,13 @@
         <v>13580</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -1818,13 +1806,13 @@
         <v>13580</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,13 +1840,13 @@
         <v>12146</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -1867,13 +1855,13 @@
         <v>12146</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,7 +1915,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -1952,13 +1940,13 @@
         <v>11599</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -1967,13 +1955,13 @@
         <v>11599</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2001,13 +1989,13 @@
         <v>1927</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2016,13 +2004,13 @@
         <v>1927</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,13 +2089,13 @@
         <v>94682</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M28" s="7">
         <v>92</v>
@@ -2116,13 +2104,13 @@
         <v>94682</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2150,13 +2138,13 @@
         <v>42727</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M29" s="7">
         <v>41</v>
@@ -2165,13 +2153,13 @@
         <v>42727</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,7 +2213,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2249,7 +2237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA33F74E-5F53-4691-AE6A-F594267101C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B5E6C8-3D2B-4561-BF2C-4A1CD8078A38}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2266,7 +2254,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2386,13 +2374,13 @@
         <v>4353</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2401,13 +2389,13 @@
         <v>4353</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,13 +2423,13 @@
         <v>1966</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -2450,13 +2438,13 @@
         <v>1966</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,13 +2523,13 @@
         <v>2974</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2550,13 +2538,13 @@
         <v>2974</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,13 +2572,13 @@
         <v>953</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2599,13 +2587,13 @@
         <v>953</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,13 +2672,13 @@
         <v>2723</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2699,13 +2687,13 @@
         <v>2723</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2721,13 @@
         <v>4620</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -2748,13 +2736,13 @@
         <v>4620</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2833,13 +2821,13 @@
         <v>1879</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2848,13 +2836,13 @@
         <v>1879</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,13 +2870,13 @@
         <v>2819</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2897,13 +2885,13 @@
         <v>2819</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,7 +2945,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2982,10 +2970,10 @@
         <v>3874</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>20</v>
@@ -2997,10 +2985,10 @@
         <v>3874</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>20</v>
@@ -3031,13 +3019,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3046,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,7 +3094,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3131,10 +3119,10 @@
         <v>921</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>20</v>
@@ -3146,10 +3134,10 @@
         <v>921</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>20</v>
@@ -3180,13 +3168,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3195,13 +3183,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,7 +3243,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3280,13 +3268,13 @@
         <v>20009</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
@@ -3295,13 +3283,13 @@
         <v>20009</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,13 +3317,13 @@
         <v>11291</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -3344,13 +3332,13 @@
         <v>11291</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,7 +3392,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3429,13 +3417,13 @@
         <v>4992</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -3444,13 +3432,13 @@
         <v>4992</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3466,13 @@
         <v>3015</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -3493,13 +3481,13 @@
         <v>3015</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,13 +3566,13 @@
         <v>41724</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M28" s="7">
         <v>42</v>
@@ -3593,13 +3581,13 @@
         <v>41724</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3615,13 @@
         <v>24664</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M29" s="7">
         <v>25</v>
@@ -3642,13 +3630,13 @@
         <v>24664</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,7 +3690,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A35-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A35-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBD2EDD5-EE27-4385-9BD5-E9C86554FC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F88F229-8567-4978-A1B2-27F80DD9E0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4DAF4B68-238D-47B7-B677-CF3374F3C14D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{38427ED1-B5B2-4DBF-AD01-B5319B299706}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,19 +84,19 @@
     <t>74,97%</t>
   </si>
   <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
   </si>
   <si>
     <t>25,03%</t>
   </si>
   <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
   </si>
   <si>
     <t>100%</t>
@@ -108,19 +108,19 @@
     <t>48,8%</t>
   </si>
   <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
   </si>
   <si>
     <t>51,2%</t>
   </si>
   <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -129,13 +129,19 @@
     <t>73,9%</t>
   </si>
   <si>
-    <t>90,3%</t>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
   </si>
   <si>
     <t>26,1%</t>
   </si>
   <si>
-    <t>9,7%</t>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -144,19 +150,19 @@
     <t>77,69%</t>
   </si>
   <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
   </si>
   <si>
     <t>22,31%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -165,19 +171,19 @@
     <t>66,09%</t>
   </si>
   <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
   </si>
   <si>
     <t>33,91%</t>
   </si>
   <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -186,19 +192,19 @@
     <t>52,79%</t>
   </si>
   <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
   </si>
   <si>
     <t>47,21%</t>
   </si>
   <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -207,7 +213,7 @@
     <t>85,76%</t>
   </si>
   <si>
-    <t>56,1%</t>
+    <t>55,88%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -219,43 +225,43 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>43,9%</t>
+    <t>44,12%</t>
   </si>
   <si>
     <t>68,91%</t>
   </si>
   <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
   </si>
   <si>
     <t>31,09%</t>
   </si>
   <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por dolor menstrual en 2015 (Tasa respuesta: 1,02%)</t>
+    <t>Población que recibe medicación o terapia por dolor menstrual en 2016 (Tasa respuesta: 1,02%)</t>
   </si>
   <si>
     <t>68,89%</t>
   </si>
   <si>
-    <t>17,27%</t>
+    <t>29,81%</t>
   </si>
   <si>
     <t>31,11%</t>
   </si>
   <si>
-    <t>82,73%</t>
+    <t>70,19%</t>
   </si>
   <si>
     <t>75,73%</t>
@@ -267,19 +273,19 @@
     <t>37,08%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
   </si>
   <si>
     <t>62,92%</t>
   </si>
   <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
   </si>
   <si>
     <t>40,01%</t>
@@ -312,55 +318,49 @@
     <t>63,93%</t>
   </si>
   <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
   </si>
   <si>
     <t>36,07%</t>
   </si>
   <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
   </si>
   <si>
     <t>62,34%</t>
   </si>
   <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
+    <t>24,34%</t>
   </si>
   <si>
     <t>37,66%</t>
   </si>
   <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
+    <t>75,66%</t>
   </si>
   <si>
     <t>62,85%</t>
   </si>
   <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
   </si>
   <si>
     <t>37,15%</t>
   </si>
   <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
   </si>
 </sst>
 </file>
@@ -772,7 +772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FE5857-898E-4152-B5BA-F115284DB3DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E867D97E-8E51-4B1B-B78A-ED97BD1ACD0B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1347,10 +1347,10 @@
         <v>29</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -1362,10 +1362,10 @@
         <v>29</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1393,13 +1393,13 @@
         <v>5075</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -1408,13 +1408,13 @@
         <v>5075</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1468,7 +1468,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1493,13 +1493,13 @@
         <v>13509</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -1508,13 +1508,13 @@
         <v>13509</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1542,13 +1542,13 @@
         <v>3879</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -1557,13 +1557,13 @@
         <v>3879</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,7 +1617,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1642,13 +1642,13 @@
         <v>12702</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -1657,13 +1657,13 @@
         <v>12702</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1691,13 +1691,13 @@
         <v>6517</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -1706,13 +1706,13 @@
         <v>6517</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,7 +1766,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1791,13 +1791,13 @@
         <v>13580</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -1806,13 +1806,13 @@
         <v>13580</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1840,13 +1840,13 @@
         <v>12146</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -1855,13 +1855,13 @@
         <v>12146</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1915,7 +1915,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -1940,13 +1940,13 @@
         <v>11599</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -1955,13 +1955,13 @@
         <v>11599</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1989,13 +1989,13 @@
         <v>1927</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2004,13 +2004,13 @@
         <v>1927</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,13 +2089,13 @@
         <v>94682</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M28" s="7">
         <v>92</v>
@@ -2104,13 +2104,13 @@
         <v>94682</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,13 +2138,13 @@
         <v>42727</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M29" s="7">
         <v>41</v>
@@ -2153,13 +2153,13 @@
         <v>42727</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2213,7 +2213,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2237,7 +2237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B5E6C8-3D2B-4561-BF2C-4A1CD8078A38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CED244-1D18-41E4-8510-97FC67B15C3F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2254,7 +2254,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2374,13 +2374,13 @@
         <v>4353</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2389,13 +2389,13 @@
         <v>4353</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2423,13 +2423,13 @@
         <v>1966</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -2438,13 +2438,13 @@
         <v>1966</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,13 +2523,13 @@
         <v>2974</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2538,13 +2538,13 @@
         <v>2974</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,13 +2572,13 @@
         <v>953</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2587,13 +2587,13 @@
         <v>953</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2672,13 @@
         <v>2723</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2687,13 +2687,13 @@
         <v>2723</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,13 +2721,13 @@
         <v>4620</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -2736,13 +2736,13 @@
         <v>4620</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,13 +2821,13 @@
         <v>1879</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2836,13 +2836,13 @@
         <v>1879</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,13 +2870,13 @@
         <v>2819</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2885,13 +2885,13 @@
         <v>2819</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,7 +2945,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2970,10 +2970,10 @@
         <v>3874</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>20</v>
@@ -2985,10 +2985,10 @@
         <v>3874</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>20</v>
@@ -3019,13 +3019,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,7 +3094,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3119,10 +3119,10 @@
         <v>921</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>20</v>
@@ -3134,10 +3134,10 @@
         <v>921</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>20</v>
@@ -3168,13 +3168,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3183,13 +3183,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3243,7 +3243,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3268,13 +3268,13 @@
         <v>20009</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
@@ -3283,13 +3283,13 @@
         <v>20009</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,13 +3317,13 @@
         <v>11291</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -3332,13 +3332,13 @@
         <v>11291</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,7 +3392,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3417,13 +3417,13 @@
         <v>4992</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -3432,13 +3432,13 @@
         <v>4992</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,10 +3466,10 @@
         <v>3015</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>101</v>
@@ -3481,10 +3481,10 @@
         <v>3015</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>101</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
